--- a/hebrewOutputs/hebrewComparison_3.xlsx
+++ b/hebrewOutputs/hebrewComparison_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
   <si>
     <t>Sentence</t>
   </si>
@@ -52,57 +52,57 @@
     <t>אנחנו רוצים ללכת.</t>
   </si>
   <si>
+    <t>כבר, כבר תשבי.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>אנחנו כבר כל כך הרבה.</t>
+  </si>
+  <si>
+    <t>נעים מאוד דוקטור דוק</t>
+  </si>
+  <si>
+    <t>מה שמך?</t>
+  </si>
+  <si>
+    <t>איך?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>דוק, שלום.</t>
+  </si>
+  <si>
+    <t>אה יעל.</t>
+  </si>
+  <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>אימא של יואב.</t>
+  </si>
+  <si>
+    <t>יואב.</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>כבר, כבר תשבי.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>אנחנו כבר כל כך הרבה.</t>
-  </si>
-  <si>
-    <t>נעים מאוד דוקטור דוק</t>
-  </si>
-  <si>
-    <t>מה שמך?</t>
-  </si>
-  <si>
-    <t>איך?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>דוק, שלום.</t>
-  </si>
-  <si>
-    <t>אה יעל.</t>
-  </si>
-  <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>אימא של יואב.</t>
-  </si>
-  <si>
-    <t>יואב.</t>
-  </si>
-  <si>
     <t xml:space="preserve">אנחנו רוצים אההה </t>
   </si>
   <si>
@@ -142,304 +142,301 @@
     <t>קודם כל זה ייקח קצת זמן, ייקח יותר זמן</t>
   </si>
   <si>
-    <t>[?]l/s</t>
-  </si>
-  <si>
     <t xml:space="preserve">אה כן? </t>
   </si>
   <si>
     <t xml:space="preserve">למה הוא כבר בסדר גמור </t>
   </si>
   <si>
+    <t>תביא לי אנטיביוטיקה.</t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>נכון הוא מרגיש יותר טוב</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> וזה טוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הסיבה שבגללו הגעתם </t>
+  </si>
+  <si>
+    <t>קודם כל עכשיו הוא מרגיש יותר טוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הוא אוכל </t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא בסדר גמור </t>
+  </si>
+  <si>
+    <t>הוא מתפקד</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הסיבה שבגללה הגעתם בגלל שמצאנו לו ערכים גבוהים של סוכר בדם, </t>
+  </si>
+  <si>
+    <t>והתגלה לו סוכרת נעורים</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> זה מחלה שיודעים הכל עליה</t>
+  </si>
+  <si>
+    <t>מה, מה.</t>
+  </si>
+  <si>
+    <t>הבאת את הילד הוא הגיע הוא הרגיש ברע היה לו כאבי בטן הוא הקיא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה בגלל מחלה מאוד מסוימת שנקראת סוכרת נעורים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המחלה הזאתי היא בסדר היא די שכיחה מטפלים בה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה קורה במיוחד בגילאים האלה </t>
+  </si>
+  <si>
+    <t>חשוב לי שתדעי שזה לא בגלל שום דבר שאת עשית או שום דבר ש ... פשוט קורה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אה בהמשך היום אתם (לא נשמע) לרופא אה שמומחה למחלה הזאתי שיסביר לך על המחלה ואיך להתנהל עליה אה.</t>
+  </si>
+  <si>
+    <t>ממש אה אה קורה במיוחד בגילאים כאלה כלומר זה משהו שעובר?</t>
+  </si>
+  <si>
+    <t>לא, לא מחלה שהוא יצטרך להתמודד אתה כל החיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יש המון מחקרים שמנסים לפתור את הבעיה הזאתי, כרגע זה לכל החיים</t>
+  </si>
+  <si>
+    <t>אבל אה חיים אתה ואוכלים איתה ואנשים מתחתנים ומגיעים לגיל מאוחר</t>
+  </si>
+  <si>
+    <t>אתה אומר שלילד שלי יש סוכרת?</t>
+  </si>
+  <si>
+    <t>נכון, נכון.</t>
+  </si>
+  <si>
+    <t>(לא ברור) ילד בן חמש.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
+  </si>
+  <si>
+    <t>יש סכרת שמפתחים כשגדלים ויש סכרת שמפתחים כשקטנים,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> סכרת שמפתחים כשקטנים יש לה התרחשויות קצת שונות מסכרת של גדולים ויש סיבות שונות</t>
+  </si>
+  <si>
+    <t>אין לך מה לדאוג זה מחלה שמתמודדים איתה וממשיכים איתה</t>
+  </si>
+  <si>
+    <t>מתמודדים איתה, קשה להתמודד אתה.</t>
+  </si>
+  <si>
+    <t>זה קשה זה נכון.</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>בן חמש.</t>
+  </si>
+  <si>
+    <t>קשה זה נכון.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא תמיד אתה יכול להגיד לו תשמע תאכל את זה, תאכל, </t>
+  </si>
+  <si>
+    <t>ילד שמשתולל שקופץ שעושה המון ספורטל הוא בכדורגל</t>
+  </si>
+  <si>
+    <t>מה יהיה?</t>
+  </si>
+  <si>
+    <t>הוא יוכל להמשיך,  הוא יוכל להמשיך עם הכול.</t>
+  </si>
+  <si>
+    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
+  </si>
+  <si>
+    <t>(לא ברור) משנה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נכון </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וגם הילד שלך יצטרך לגדול לתוך זה </t>
+  </si>
+  <si>
+    <t>אני יכול להגיד לך שלי יש חבר עם סכרת נעורים</t>
+  </si>
+  <si>
+    <t>self-dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> שהוא מתמודד עם זה יופי. </t>
+  </si>
+  <si>
+    <t>בן כמה הוא?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>חבר שלי בן שלושים ושתיים נשוי עם ילג</t>
+  </si>
+  <si>
+    <t>זה אחרת</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל הוא קיבל את המחלה גם כן כשהיה מאוד צעיר, </t>
+  </si>
+  <si>
+    <t>זה סכרת שמתפתחת כשמאוד, מאוד קטנים</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אה והכול בסדר </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אנשים חיים עם זה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא צריך לדאוג </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כמובן שזה לא מצב אידיאלי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל אה אנחנו לא נמצאים בעולם אידיאלי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ולאט לאט אנחנו נדע איך להתמודד עם, </t>
+  </si>
+  <si>
+    <t>כמובן שיהיה מי שילווה אתכם כל הזמן לאורך כל החיים לאורך כל הפרוצדורות שבו תצטרכו לעבור.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש לו עוד אחות קטנה בבית יכול להיות שגם לה יש, </t>
+  </si>
+  <si>
+    <t>משהו תורשתי?</t>
+  </si>
+  <si>
+    <t>יש, יש.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש לזה באמת מאפיינים גנטיים </t>
+  </si>
+  <si>
+    <t>אבל גם זה (לא ברור) לא משהו שאפשר לצפות</t>
+  </si>
+  <si>
+    <t>בגלל זה זה הגיעה ככה כיומיים פתאום שלושה ימים של כאבי בטן והגעתם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה לא משהו שעשיתם או משהו שהוא עשה שגרם </t>
+  </si>
+  <si>
+    <t>הכול בסדר.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר אני לא יודעת אם הכול בסדר, </t>
+  </si>
+  <si>
+    <t>היה הכול בסדר אם היינו (לא ברור) סתם היה קלקול קיבה או משהו כזה.</t>
+  </si>
+  <si>
+    <t>נכון,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> עוד פעם זה לא מצב אידיאלי.</t>
+  </si>
+  <si>
+    <t>(לא ברור) הוא נראה בסדר</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> הוא אף פעם לא היה לו, </t>
+  </si>
+  <si>
+    <t>לא התלונן לפני זה או משהו כזה כמו.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">את יודעת הבשורות הרעות באות אלינו בבת אחת, </t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הנקודה החיובית מכל הסיטואציה הזאתי זה שמחלה באמת מתמודדים אתה </t>
+  </si>
+  <si>
+    <t>אנשים חיים אתה ומפתחים חיים נורמליים והם גדלים ופשוט</t>
+  </si>
+  <si>
+    <t>לדעת איך להתמודד עם זה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש כל מיני, יש כל מיני סוגי טיפולים </t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש כל מיני התמודדויות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש המון  מחקרים חדשים שעובדים על לנסות לשפר את המצב של זה, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש הרבה אנשים שמתמודדים עם זה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אומנם לא שומעים עליהם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל המון אנשים מתמודדים עם זה. </t>
+  </si>
+  <si>
+    <t>מה אני אומרת לו?</t>
+  </si>
+  <si>
     <t>?other</t>
   </si>
   <si>
-    <t>תביא לי אנטיביוטיקה.</t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>נכון הוא מרגיש יותר טוב</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> וזה טוב</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הסיבה שבגללו הגעתם </t>
-  </si>
-  <si>
-    <t>קודם כל עכשיו הוא מרגיש יותר טוב</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הוא אוכל </t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא בסדר גמור </t>
-  </si>
-  <si>
-    <t>הוא מתפקד</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הסיבה שבגללה הגעתם בגלל שמצאנו לו ערכים גבוהים של סוכר בדם, </t>
-  </si>
-  <si>
-    <t>והתגלה לו סוכרת נעורים</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> זה מחלה שיודעים הכל עליה</t>
-  </si>
-  <si>
-    <t>מה, מה.</t>
-  </si>
-  <si>
-    <t>הבאת את הילד הוא הגיע הוא הרגיש ברע היה לו כאבי בטן הוא הקיא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה בגלל מחלה מאוד מסוימת שנקראת סוכרת נעורים </t>
-  </si>
-  <si>
-    <t xml:space="preserve">המחלה הזאתי היא בסדר היא די שכיחה מטפלים בה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה קורה במיוחד בגילאים האלה </t>
-  </si>
-  <si>
-    <t>חשוב לי שתדעי שזה לא בגלל שום דבר שאת עשית או שום דבר ש ... פשוט קורה</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אה בהמשך היום אתם (לא נשמע) לרופא אה שמומחה למחלה הזאתי שיסביר לך על המחלה ואיך להתנהל עליה אה.</t>
-  </si>
-  <si>
-    <t>ממש אה אה קורה במיוחד בגילאים כאלה כלומר זה משהו שעובר?</t>
-  </si>
-  <si>
-    <t>לא, לא מחלה שהוא יצטרך להתמודד אתה כל החיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> יש המון מחקרים שמנסים לפתור את הבעיה הזאתי, כרגע זה לכל החיים</t>
-  </si>
-  <si>
-    <t>אבל אה חיים אתה ואוכלים איתה ואנשים מתחתנים ומגיעים לגיל מאוחר</t>
-  </si>
-  <si>
-    <t>אתה אומר שלילד שלי יש סוכרת?</t>
-  </si>
-  <si>
-    <t>נכון, נכון.</t>
-  </si>
-  <si>
-    <t>(לא ברור) ילד בן חמש.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
-  </si>
-  <si>
-    <t>יש סכרת שמפתחים כשגדלים ויש סכרת שמפתחים כשקטנים,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> סכרת שמפתחים כשקטנים יש לה התרחשויות קצת שונות מסכרת של גדולים ויש סיבות שונות</t>
-  </si>
-  <si>
-    <t>אין לך מה לדאוג זה מחלה שמתמודדים איתה וממשיכים איתה</t>
-  </si>
-  <si>
-    <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>זה קשה זה נכון.</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>בן חמש.</t>
-  </si>
-  <si>
-    <t>קשה זה נכון.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא תמיד אתה יכול להגיד לו תשמע תאכל את זה, תאכל, </t>
-  </si>
-  <si>
-    <t>ילד שמשתולל שקופץ שעושה המון ספורטל הוא בכדורגל</t>
-  </si>
-  <si>
-    <t>מה יהיה?</t>
-  </si>
-  <si>
-    <t>הוא יוכל להמשיך,  הוא יוכל להמשיך עם הכול.</t>
-  </si>
-  <si>
-    <t>עדיף שהוא יעשה ספורט, זה טוב</t>
-  </si>
-  <si>
-    <t>(לא ברור) משנה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נכון </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגלל זה גם עדיף ללמוד את הנושא כמו שצריך </t>
-  </si>
-  <si>
-    <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">וגם הילד שלך יצטרך לגדול לתוך זה </t>
-  </si>
-  <si>
-    <t>אני יכול להגיד לך שלי יש חבר עם סכרת נעורים</t>
-  </si>
-  <si>
-    <t>self-dis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> שהוא מתמודד עם זה יופי. </t>
-  </si>
-  <si>
-    <t>בן כמה הוא?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>חבר שלי בן שלושים ושתיים נשוי עם ילג</t>
-  </si>
-  <si>
-    <t>זה אחרת</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל הוא קיבל את המחלה גם כן כשהיה מאוד צעיר, </t>
-  </si>
-  <si>
-    <t>זה סכרת שמתפתחת כשמאוד, מאוד קטנים</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אה והכול בסדר </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אנשים חיים עם זה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא צריך לדאוג </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כמובן שזה לא מצב אידיאלי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל אה אנחנו לא נמצאים בעולם אידיאלי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ולאט לאט אנחנו נדע איך להתמודד עם, </t>
-  </si>
-  <si>
-    <t>כמובן שיהיה מי שילווה אתכם כל הזמן לאורך כל החיים לאורך כל הפרוצדורות שבו תצטרכו לעבור.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש לו עוד אחות קטנה בבית יכול להיות שגם לה יש, </t>
-  </si>
-  <si>
-    <t>משהו תורשתי?</t>
-  </si>
-  <si>
-    <t>יש, יש.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש לזה באמת מאפיינים גנטיים </t>
-  </si>
-  <si>
-    <t>אבל גם זה (לא ברור) לא משהו שאפשר לצפות</t>
-  </si>
-  <si>
-    <t>בגלל זה זה הגיעה ככה כיומיים פתאום שלושה ימים של כאבי בטן והגעתם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה לא משהו שעשיתם או משהו שהוא עשה שגרם </t>
-  </si>
-  <si>
-    <t>הכול בסדר.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר אני לא יודעת אם הכול בסדר, </t>
-  </si>
-  <si>
-    <t>היה הכול בסדר אם היינו (לא ברור) סתם היה קלקול קיבה או משהו כזה.</t>
-  </si>
-  <si>
-    <t>נכון,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> עוד פעם זה לא מצב אידיאלי.</t>
-  </si>
-  <si>
-    <t>(לא ברור) הוא נראה בסדר</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> הוא אף פעם לא היה לו, </t>
-  </si>
-  <si>
-    <t>לא התלונן לפני זה או משהו כזה כמו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את יודעת הבשורות הרעות באות אלינו בבת אחת, </t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הנקודה החיובית מכל הסיטואציה הזאתי זה שמחלה באמת מתמודדים אתה </t>
-  </si>
-  <si>
-    <t>אנשים חיים אתה ומפתחים חיים נורמליים והם גדלים ופשוט</t>
-  </si>
-  <si>
-    <t>לדעת איך להתמודד עם זה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש כל מיני, יש כל מיני סוגי טיפולים </t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש כל מיני התמודדויות </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש המון  מחקרים חדשים שעובדים על לנסות לשפר את המצב של זה, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש הרבה אנשים שמתמודדים עם זה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אומנם לא שומעים עליהם </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל המון אנשים מתמודדים עם זה. </t>
-  </si>
-  <si>
-    <t>מה אני אומרת לו?</t>
-  </si>
-  <si>
     <t>קודם כל חשוב שגם את וגם בעלך וגם המשפחה כולכם תדעו מה, מה זה אומר סכרת נעורים</t>
   </si>
   <si>
     <t>תקראו על זה קצת</t>
   </si>
   <si>
+    <t xml:space="preserve"> אנחנו לכם ניתן חומר לקרוא על זה</t>
+  </si>
+  <si>
     <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אנחנו לכם ניתן חומר לקרוא על זה</t>
   </si>
   <si>
     <t xml:space="preserve"> ואתם תתייעצו עם רופא מומחה שיסביר לכם</t>
@@ -938,23 +935,23 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -976,7 +973,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -987,18 +984,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1031,7 +1028,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1042,18 +1039,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1064,13 +1061,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1078,10 +1075,10 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1103,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1180,48 +1177,48 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1229,29 +1226,29 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1262,40 +1259,40 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1339,29 +1336,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1372,18 +1369,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1394,98 +1391,98 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
         <v>40</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1515,7 +1512,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1526,18 +1523,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -1548,18 +1545,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
         <v>40</v>
@@ -1570,18 +1567,18 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -1592,35 +1589,35 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1636,18 +1633,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
@@ -1658,32 +1655,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -1691,10 +1688,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1702,32 +1699,32 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1735,21 +1732,21 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1768,43 +1765,43 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -1812,32 +1809,32 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -1845,32 +1842,32 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -1889,7 +1886,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1900,95 +1897,95 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2021,35 +2018,35 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2065,13 +2062,13 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2087,51 +2084,51 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -2142,54 +2139,54 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C121" t="s">
         <v>140</v>
@@ -2197,21 +2194,21 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
         <v>140</v>
@@ -2219,87 +2216,87 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -2307,10 +2304,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -2318,10 +2315,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -2329,21 +2326,21 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" t="s">
         <v>154</v>
       </c>
-      <c r="B134" t="s">
-        <v>155</v>
-      </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135" t="s">
         <v>140</v>
@@ -2351,24 +2348,24 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2384,29 +2381,29 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
@@ -2417,21 +2414,21 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s">
         <v>140</v>
@@ -2450,32 +2447,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B148" t="s">
         <v>33</v>
@@ -2494,35 +2491,35 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
